--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>22.4206810336579</v>
+        <v>0.2875206666666666</v>
       </c>
       <c r="H2">
-        <v>22.4206810336579</v>
+        <v>0.8625619999999999</v>
       </c>
       <c r="I2">
-        <v>0.7940339268807179</v>
+        <v>0.00817113563450266</v>
       </c>
       <c r="J2">
-        <v>0.7940339268807179</v>
+        <v>0.00817113563450266</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>75.3133603064595</v>
+        <v>1.134750531276444</v>
       </c>
       <c r="R2">
-        <v>75.3133603064595</v>
+        <v>10.212754781488</v>
       </c>
       <c r="S2">
-        <v>0.005667450507926091</v>
+        <v>6.604147026170757E-05</v>
       </c>
       <c r="T2">
-        <v>0.005667450507926091</v>
+        <v>6.796492026876639E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>22.4206810336579</v>
+        <v>0.2875206666666666</v>
       </c>
       <c r="H3">
-        <v>22.4206810336579</v>
+        <v>0.8625619999999999</v>
       </c>
       <c r="I3">
-        <v>0.7940339268807179</v>
+        <v>0.00817113563450266</v>
       </c>
       <c r="J3">
-        <v>0.7940339268807179</v>
+        <v>0.00817113563450266</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>3924.331657101902</v>
+        <v>53.42212891921621</v>
       </c>
       <c r="R3">
-        <v>3924.331657101902</v>
+        <v>480.799160272946</v>
       </c>
       <c r="S3">
-        <v>0.2953122175509282</v>
+        <v>0.00310912032300783</v>
       </c>
       <c r="T3">
-        <v>0.2953122175509282</v>
+        <v>0.003199673084530821</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>22.4206810336579</v>
+        <v>0.2875206666666666</v>
       </c>
       <c r="H4">
-        <v>22.4206810336579</v>
+        <v>0.8625619999999999</v>
       </c>
       <c r="I4">
-        <v>0.7940339268807179</v>
+        <v>0.00817113563450266</v>
       </c>
       <c r="J4">
-        <v>0.7940339268807179</v>
+        <v>0.00817113563450266</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>2591.165066344195</v>
+        <v>33.73750951060289</v>
       </c>
       <c r="R4">
-        <v>2591.165066344195</v>
+        <v>303.637585595426</v>
       </c>
       <c r="S4">
-        <v>0.1949893048406873</v>
+        <v>0.001963493005411742</v>
       </c>
       <c r="T4">
-        <v>0.1949893048406873</v>
+        <v>0.002020679506865344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>22.4206810336579</v>
+        <v>0.2875206666666666</v>
       </c>
       <c r="H5">
-        <v>22.4206810336579</v>
+        <v>0.8625619999999999</v>
       </c>
       <c r="I5">
-        <v>0.7940339268807179</v>
+        <v>0.00817113563450266</v>
       </c>
       <c r="J5">
-        <v>0.7940339268807179</v>
+        <v>0.00817113563450266</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>3041.439474234223</v>
+        <v>40.18508225498155</v>
       </c>
       <c r="R5">
-        <v>3041.439474234223</v>
+        <v>361.665740294834</v>
       </c>
       <c r="S5">
-        <v>0.2288731723419968</v>
+        <v>0.002338735996643571</v>
       </c>
       <c r="T5">
-        <v>0.2288731723419968</v>
+        <v>0.002406851405816421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>22.4206810336579</v>
+        <v>0.2875206666666666</v>
       </c>
       <c r="H6">
-        <v>22.4206810336579</v>
+        <v>0.8625619999999999</v>
       </c>
       <c r="I6">
-        <v>0.7940339268807179</v>
+        <v>0.00817113563450266</v>
       </c>
       <c r="J6">
-        <v>0.7940339268807179</v>
+        <v>0.00817113563450266</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>919.472622398656</v>
+        <v>11.92019683552933</v>
       </c>
       <c r="R6">
-        <v>919.472622398656</v>
+        <v>71.52118101317599</v>
       </c>
       <c r="S6">
-        <v>0.06919178163917954</v>
+        <v>0.0006937448391778098</v>
       </c>
       <c r="T6">
-        <v>0.06919178163917954</v>
+        <v>0.0004759667170213086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.56555704218697</v>
+        <v>27.25068233333333</v>
       </c>
       <c r="H7">
-        <v>3.56555704218697</v>
+        <v>81.752047</v>
       </c>
       <c r="I7">
-        <v>0.1262750785970669</v>
+        <v>0.7744452740037658</v>
       </c>
       <c r="J7">
-        <v>0.1262750785970669</v>
+        <v>0.7744452740037661</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>11.9770707146825</v>
+        <v>107.5495776143476</v>
       </c>
       <c r="R7">
-        <v>11.9770707146825</v>
+        <v>967.9461985291281</v>
       </c>
       <c r="S7">
-        <v>0.0009012936778970426</v>
+        <v>0.0062592896287852</v>
       </c>
       <c r="T7">
-        <v>0.0009012936778970426</v>
+        <v>0.006441590698597253</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.56555704218697</v>
+        <v>27.25068233333333</v>
       </c>
       <c r="H8">
-        <v>3.56555704218697</v>
+        <v>81.752047</v>
       </c>
       <c r="I8">
-        <v>0.1262750785970669</v>
+        <v>0.7744452740037658</v>
       </c>
       <c r="J8">
-        <v>0.1262750785970669</v>
+        <v>0.7744452740037661</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>624.0857873519333</v>
+        <v>5063.251562489217</v>
       </c>
       <c r="R8">
-        <v>624.0857873519333</v>
+        <v>45569.26406240295</v>
       </c>
       <c r="S8">
-        <v>0.04696345108125269</v>
+        <v>0.2946767313830093</v>
       </c>
       <c r="T8">
-        <v>0.04696345108125269</v>
+        <v>0.3032591563171096</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.56555704218697</v>
+        <v>27.25068233333333</v>
       </c>
       <c r="H9">
-        <v>3.56555704218697</v>
+        <v>81.752047</v>
       </c>
       <c r="I9">
-        <v>0.1262750785970669</v>
+        <v>0.7744452740037658</v>
       </c>
       <c r="J9">
-        <v>0.1262750785970669</v>
+        <v>0.7744452740037661</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>412.0725340993396</v>
+        <v>3197.57937768387</v>
       </c>
       <c r="R9">
-        <v>412.0725340993396</v>
+        <v>28778.21439915483</v>
       </c>
       <c r="S9">
-        <v>0.0310091155563987</v>
+        <v>0.1860962718767949</v>
       </c>
       <c r="T9">
-        <v>0.0310091155563987</v>
+        <v>0.191516303775488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.56555704218697</v>
+        <v>27.25068233333333</v>
       </c>
       <c r="H10">
-        <v>3.56555704218697</v>
+        <v>81.752047</v>
       </c>
       <c r="I10">
-        <v>0.1262750785970669</v>
+        <v>0.7744452740037658</v>
       </c>
       <c r="J10">
-        <v>0.1262750785970669</v>
+        <v>0.7744452740037661</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>483.6795956136046</v>
+        <v>3808.668516823275</v>
       </c>
       <c r="R10">
-        <v>483.6795956136046</v>
+        <v>34278.01665140948</v>
       </c>
       <c r="S10">
-        <v>0.03639766116767863</v>
+        <v>0.221661115511925</v>
       </c>
       <c r="T10">
-        <v>0.03639766116767863</v>
+        <v>0.2281169692733045</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.56555704218697</v>
+        <v>27.25068233333333</v>
       </c>
       <c r="H11">
-        <v>3.56555704218697</v>
+        <v>81.752047</v>
       </c>
       <c r="I11">
-        <v>0.1262750785970669</v>
+        <v>0.7744452740037658</v>
       </c>
       <c r="J11">
-        <v>0.1262750785970669</v>
+        <v>0.7744452740037661</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>146.2235727349259</v>
+        <v>1129.774430066993</v>
       </c>
       <c r="R11">
-        <v>146.2235727349259</v>
+        <v>6778.646580401956</v>
       </c>
       <c r="S11">
-        <v>0.01100355711383981</v>
+        <v>0.06575186560325141</v>
       </c>
       <c r="T11">
-        <v>0.01100355711383981</v>
+        <v>0.04511125393926666</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.25018895156853</v>
+        <v>4.640588333333334</v>
       </c>
       <c r="H12">
-        <v>2.25018895156853</v>
+        <v>13.921765</v>
       </c>
       <c r="I12">
-        <v>0.07969099452221517</v>
+        <v>0.1318822647956575</v>
       </c>
       <c r="J12">
-        <v>0.07969099452221517</v>
+        <v>0.1318822647956575</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>7.558614790188039</v>
+        <v>18.31489241359555</v>
       </c>
       <c r="R12">
-        <v>7.558614790188039</v>
+        <v>164.83403172236</v>
       </c>
       <c r="S12">
-        <v>0.0005687978209650368</v>
+        <v>0.001065910426424977</v>
       </c>
       <c r="T12">
-        <v>0.0005687978209650368</v>
+        <v>0.001096954941471457</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.25018895156853</v>
+        <v>4.640588333333334</v>
       </c>
       <c r="H13">
-        <v>2.25018895156853</v>
+        <v>13.921765</v>
       </c>
       <c r="I13">
-        <v>0.07969099452221517</v>
+        <v>0.1318822647956575</v>
       </c>
       <c r="J13">
-        <v>0.07969099452221517</v>
+        <v>0.1318822647956575</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>393.8545722070174</v>
+        <v>862.2340476545828</v>
       </c>
       <c r="R13">
-        <v>393.8545722070174</v>
+        <v>7760.106428891245</v>
       </c>
       <c r="S13">
-        <v>0.02963818486150094</v>
+        <v>0.05018125363004527</v>
       </c>
       <c r="T13">
-        <v>0.02963818486150094</v>
+        <v>0.0516427767043566</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.25018895156853</v>
+        <v>4.640588333333334</v>
       </c>
       <c r="H14">
-        <v>2.25018895156853</v>
+        <v>13.921765</v>
       </c>
       <c r="I14">
-        <v>0.07969099452221517</v>
+        <v>0.1318822647956575</v>
       </c>
       <c r="J14">
-        <v>0.07969099452221517</v>
+        <v>0.1318822647956575</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>260.055035581887</v>
+        <v>544.5239636013162</v>
       </c>
       <c r="R14">
-        <v>260.055035581887</v>
+        <v>4900.715672411846</v>
       </c>
       <c r="S14">
-        <v>0.01956955628456926</v>
+        <v>0.03169080970467747</v>
       </c>
       <c r="T14">
-        <v>0.01956955628456926</v>
+        <v>0.03261380078753204</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.25018895156853</v>
+        <v>4.640588333333334</v>
       </c>
       <c r="H15">
-        <v>2.25018895156853</v>
+        <v>13.921765</v>
       </c>
       <c r="I15">
-        <v>0.07969099452221517</v>
+        <v>0.1318822647956575</v>
       </c>
       <c r="J15">
-        <v>0.07969099452221517</v>
+        <v>0.1318822647956575</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>305.2455673185092</v>
+        <v>648.5878947362894</v>
       </c>
       <c r="R15">
-        <v>305.2455673185092</v>
+        <v>5837.291052626605</v>
       </c>
       <c r="S15">
-        <v>0.02297021588868206</v>
+        <v>0.03774723781283268</v>
       </c>
       <c r="T15">
-        <v>0.02297021588868206</v>
+        <v>0.03884662164771442</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.25018895156853</v>
+        <v>4.640588333333334</v>
       </c>
       <c r="H16">
-        <v>2.25018895156853</v>
+        <v>13.921765</v>
       </c>
       <c r="I16">
-        <v>0.07969099452221517</v>
+        <v>0.1318822647956575</v>
       </c>
       <c r="J16">
-        <v>0.07969099452221517</v>
+        <v>0.1318822647956575</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>92.28029840330173</v>
+        <v>192.3921748210367</v>
       </c>
       <c r="R16">
-        <v>92.28029840330173</v>
+        <v>1154.35304892622</v>
       </c>
       <c r="S16">
-        <v>0.006944239666497888</v>
+        <v>0.01119705322167712</v>
       </c>
       <c r="T16">
-        <v>0.006944239666497888</v>
+        <v>0.007682110714583021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.008565666666667</v>
+      </c>
+      <c r="H17">
+        <v>9.025697000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.08550132556607382</v>
+      </c>
+      <c r="J17">
+        <v>0.08550132556607383</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.946674666666667</v>
+      </c>
+      <c r="N17">
+        <v>11.840024</v>
+      </c>
+      <c r="O17">
+        <v>0.008082287850277156</v>
+      </c>
+      <c r="P17">
+        <v>0.008317683527585098</v>
+      </c>
+      <c r="Q17">
+        <v>11.87382989963645</v>
+      </c>
+      <c r="R17">
+        <v>106.864469096728</v>
+      </c>
+      <c r="S17">
+        <v>0.00069104632480527</v>
+      </c>
+      <c r="T17">
+        <v>0.000711172967247623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.008565666666667</v>
+      </c>
+      <c r="H18">
+        <v>9.025697000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.08550132556607382</v>
+      </c>
+      <c r="J18">
+        <v>0.08550132556607383</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>185.8027443333333</v>
+      </c>
+      <c r="N18">
+        <v>557.408233</v>
+      </c>
+      <c r="O18">
+        <v>0.3805003933455167</v>
+      </c>
+      <c r="P18">
+        <v>0.3915824222792467</v>
+      </c>
+      <c r="Q18">
+        <v>558.9997573737113</v>
+      </c>
+      <c r="R18">
+        <v>5030.997816363401</v>
+      </c>
+      <c r="S18">
+        <v>0.03253328800945417</v>
+      </c>
+      <c r="T18">
+        <v>0.03348081617324968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.008565666666667</v>
+      </c>
+      <c r="H19">
+        <v>9.025697000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.08550132556607382</v>
+      </c>
+      <c r="J19">
+        <v>0.08550132556607383</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>117.3394243333333</v>
+      </c>
+      <c r="N19">
+        <v>352.018273</v>
+      </c>
+      <c r="O19">
+        <v>0.2402962199184265</v>
+      </c>
+      <c r="P19">
+        <v>0.2472948188906589</v>
+      </c>
+      <c r="Q19">
+        <v>353.023363395698</v>
+      </c>
+      <c r="R19">
+        <v>3177.210270561282</v>
+      </c>
+      <c r="S19">
+        <v>0.02054564533154225</v>
+      </c>
+      <c r="T19">
+        <v>0.02114403482077349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.008565666666667</v>
+      </c>
+      <c r="H20">
+        <v>9.025697000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.08550132556607382</v>
+      </c>
+      <c r="J20">
+        <v>0.08550132556607383</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>139.7641523333333</v>
+      </c>
+      <c r="N20">
+        <v>419.292457</v>
+      </c>
+      <c r="O20">
+        <v>0.2862192112890951</v>
+      </c>
+      <c r="P20">
+        <v>0.2945553119511906</v>
+      </c>
+      <c r="Q20">
+        <v>420.4896301408366</v>
+      </c>
+      <c r="R20">
+        <v>3784.406671267529</v>
+      </c>
+      <c r="S20">
+        <v>0.02447212196769379</v>
+      </c>
+      <c r="T20">
+        <v>0.02518486962435518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.008565666666667</v>
+      </c>
+      <c r="H21">
+        <v>9.025697000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.08550132556607382</v>
+      </c>
+      <c r="J21">
+        <v>0.08550132556607383</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>41.458574</v>
+      </c>
+      <c r="N21">
+        <v>82.917148</v>
+      </c>
+      <c r="O21">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P21">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q21">
+        <v>124.7308423253593</v>
+      </c>
+      <c r="R21">
+        <v>748.3850539521561</v>
+      </c>
+      <c r="S21">
+        <v>0.007259223932578343</v>
+      </c>
+      <c r="T21">
+        <v>0.004980431980447869</v>
       </c>
     </row>
   </sheetData>
